--- a/xlsx/nor_oda_countries_topten_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_topten_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2023, NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2023. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_countries_topten_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_topten_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2023. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2024. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>5791.93369073</v>
+        <v>6716.44621002</v>
       </c>
     </row>
     <row r="3">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2154.281299988</v>
+        <v>2540.806832</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>673.420590096</v>
+        <v>683.663401054</v>
       </c>
     </row>
     <row r="5">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>538.610889745</v>
+        <v>619.627336331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -474,22 +474,22 @@
         </is>
       </c>
       <c r="C6">
-        <v>167.935131171</v>
+        <v>1031.285289552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nødhjelp</t>
+          <t>Langsiktig bistand</t>
         </is>
       </c>
       <c r="C7">
-        <v>880.4886596700001</v>
+        <v>925.0745626150001</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>656.2911727440001</v>
+        <v>606.554310255</v>
       </c>
     </row>
     <row r="9">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>190.655067283</v>
+        <v>66.550477849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Sør-Sudan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>532.737512792</v>
+        <v>494.268580938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Sør-Sudan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>308.391241468</v>
+        <v>124.100108215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sør-Sudan</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>628.69987139</v>
+        <v>418.09935973</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sør-Sudan</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>196.943407927</v>
+        <v>158.148241848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>523.944857</v>
+        <v>556.2966567669999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>274.8672</v>
+        <v>9.799999924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>545.677261668</v>
+        <v>220.486940937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>210.63099991</v>
+        <v>341.311618891</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mosambik</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>733.174605004</v>
+        <v>531.081838224</v>
       </c>
     </row>
     <row r="19">
@@ -665,26 +665,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Langsiktig bistand</t>
+          <t>Nødhjelp</t>
         </is>
       </c>
       <c r="C19">
-        <v>548.688338894</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mosambik</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nødhjelp</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>51.299999959</v>
+        <v>27.299999923</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_countries_topten_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_topten_oneyear.xlsx
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>683.663401054</v>
+        <v>678.317153214</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>619.627336331</v>
+        <v>624.973584171</v>
       </c>
     </row>
     <row r="6">

--- a/xlsx/nor_oda_countries_topten_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_topten_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2024. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata inneholder data om ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp. 2024. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
